--- a/nyt/doc/数据库文档/数据库表结构.xlsx
+++ b/nyt/doc/数据库文档/数据库表结构.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9680" tabRatio="741" firstSheet="33" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19087" windowHeight="9674" tabRatio="741" firstSheet="26" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="1" r:id="rId1"/>
@@ -53,12 +53,13 @@
     <sheet name="collect_info" sheetId="44" r:id="rId44"/>
     <sheet name="freight_rates" sheetId="45" r:id="rId45"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="603">
   <si>
     <t>煤宝联数据库表结构</t>
   </si>
@@ -136,6 +137,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>所以当发布生产后</t>
@@ -584,6 +586,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>v</t>
@@ -638,6 +641,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公司名称（</t>
@@ -681,6 +685,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>通讯地址（</t>
@@ -1236,6 +1241,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">版本类型 </t>
@@ -1292,6 +1298,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>图片</t>
@@ -1322,6 +1329,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>发送对象</t>
@@ -1356,6 +1364,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>追加号码（格式</t>
@@ -1390,6 +1399,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">状态 </t>
@@ -1759,6 +1769,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>相关</t>
@@ -1874,6 +1885,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>标示</t>
@@ -1937,6 +1949,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>手机号码，</t>
@@ -2207,6 +2220,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>名称</t>
@@ -2240,6 +2254,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>连接地址。。。对应</t>
@@ -2264,6 +2279,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大小。。。</t>
@@ -2350,6 +2366,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>推送的标识（</t>
@@ -3134,27 +3151,99 @@
   <si>
     <t>汽运价</t>
   </si>
+  <si>
+    <t xml:space="preserve">producer </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivated</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tail_directly </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_describe</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>archar</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项描述</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rderid</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>默认0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,值越大越靠前</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ H:mm"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -3164,12 +3253,6 @@
       <color indexed="12"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3293,6 +3376,12 @@
     <font>
       <sz val="10.5"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3439,41 +3528,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="105">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="103">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3481,149 +3552,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3634,17 +3690,98 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -3656,7 +3793,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3943,6 +4080,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -3975,61 +4113,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.1"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="10.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="28.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6">
-      <c r="C4" s="95" t="s">
+    <row r="4" spans="3:6" ht="19.649999999999999">
+      <c r="C4" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
-    </row>
-    <row r="5" ht="17.4" spans="3:6">
-      <c r="C5" s="98" t="s">
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
+    </row>
+    <row r="5" spans="3:6" ht="17.7">
+      <c r="C5" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="93" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="43.2" spans="3:6">
-      <c r="C6" s="99" t="s">
+    <row r="6" spans="3:6" ht="39.299999999999997">
+      <c r="C6" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="100">
+      <c r="D6" s="95">
         <v>41488</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="99" t="s">
+      <c r="F6" s="94" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:6">
       <c r="C7" s="7"/>
-      <c r="D7" s="102">
+      <c r="D7" s="97">
         <v>41583</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -4041,7 +4178,7 @@
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="7"/>
-      <c r="D8" s="102">
+      <c r="D8" s="97">
         <v>41591</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -4053,7 +4190,7 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="7"/>
-      <c r="D9" s="102">
+      <c r="D9" s="97">
         <v>41611</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -4163,33 +4300,33 @@
   <mergeCells count="1">
     <mergeCell ref="C4:F4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.1"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
     <col min="2" max="2" width="16" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.6666666666667" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.8888888888889" style="8" customWidth="1"/>
-    <col min="7" max="8" width="8.88888888888889" style="8"/>
-    <col min="9" max="9" width="14.1111111111111" style="8" customWidth="1"/>
-    <col min="10" max="10" width="18.7777777777778" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="8.88888888888889" style="8"/>
+    <col min="3" max="3" width="11.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="8"/>
+    <col min="9" max="9" width="14.109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="18.77734375" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4224,7 +4361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="1:10">
       <c r="B2" s="8" t="s">
         <v>135</v>
       </c>
@@ -4241,7 +4378,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="1:10">
       <c r="B3" s="8" t="s">
         <v>202</v>
       </c>
@@ -4255,7 +4392,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4" s="8" t="s">
         <v>204</v>
       </c>
@@ -4269,7 +4406,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="2:10">
+    <row r="5" spans="1:10" ht="52.4">
       <c r="B5" s="8" t="s">
         <v>91</v>
       </c>
@@ -4283,7 +4420,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" s="8" t="s">
         <v>207</v>
       </c>
@@ -4300,7 +4437,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" ht="12.8" customHeight="1" spans="2:10">
+    <row r="7" spans="1:10" ht="12.8" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>209</v>
       </c>
@@ -4320,7 +4457,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:10">
       <c r="B8" s="8" t="s">
         <v>279</v>
       </c>
@@ -4334,7 +4471,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="1:10">
       <c r="B9" s="8" t="s">
         <v>281</v>
       </c>
@@ -4348,7 +4485,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="1:10">
       <c r="B10" s="8" t="s">
         <v>283</v>
       </c>
@@ -4362,7 +4499,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="1:10">
       <c r="B11" s="8" t="s">
         <v>285</v>
       </c>
@@ -4376,7 +4513,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="1:10">
       <c r="B12" s="8" t="s">
         <v>287</v>
       </c>
@@ -4390,7 +4527,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="1:10">
       <c r="B13" s="8" t="s">
         <v>289</v>
       </c>
@@ -4404,7 +4541,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="1:10">
       <c r="B14" s="8" t="s">
         <v>291</v>
       </c>
@@ -4418,7 +4555,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="1:10">
       <c r="B15" s="8" t="s">
         <v>293</v>
       </c>
@@ -4432,7 +4569,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="1:10">
       <c r="B16" s="8" t="s">
         <v>295</v>
       </c>
@@ -4516,7 +4653,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" ht="28.8" spans="2:10">
+    <row r="22" spans="2:10" ht="26.2">
       <c r="B22" s="8" t="s">
         <v>229</v>
       </c>
@@ -4530,7 +4667,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.6" spans="2:10">
+    <row r="23" spans="2:10" customFormat="1" ht="15.75">
       <c r="B23" t="s">
         <v>261</v>
       </c>
@@ -4550,7 +4687,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" ht="43.2" spans="2:10">
+    <row r="24" spans="2:10" ht="39.299999999999997">
       <c r="B24" s="9" t="s">
         <v>318</v>
       </c>
@@ -4564,7 +4701,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="2:10">
+    <row r="25" spans="2:10" ht="15.75">
       <c r="B25" s="21" t="s">
         <v>215</v>
       </c>
@@ -4604,7 +4741,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="2:10">
+    <row r="27" spans="2:10" ht="15.75">
       <c r="B27" s="21" t="s">
         <v>243</v>
       </c>
@@ -4646,7 +4783,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="2:10">
+    <row r="29" spans="2:10" ht="15.75">
       <c r="B29" s="21" t="s">
         <v>249</v>
       </c>
@@ -4686,7 +4823,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="2:10">
+    <row r="31" spans="2:10" ht="15.75">
       <c r="B31" s="21" t="s">
         <v>253</v>
       </c>
@@ -4726,7 +4863,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="2:10">
+    <row r="33" spans="2:10" ht="15.75">
       <c r="B33" s="21" t="s">
         <v>257</v>
       </c>
@@ -4747,8 +4884,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="2:10">
-      <c r="B34" s="44" t="s">
+    <row r="34" spans="2:10" ht="15.75">
+      <c r="B34" s="43" t="s">
         <v>320</v>
       </c>
       <c r="C34" s="20" t="s">
@@ -4785,7 +4922,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="2:10">
+    <row r="36" spans="2:10" ht="15.75">
       <c r="B36" s="24" t="s">
         <v>263</v>
       </c>
@@ -4823,7 +4960,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="2:10">
+    <row r="38" spans="2:10" ht="15.75">
       <c r="B38" s="24" t="s">
         <v>267</v>
       </c>
@@ -4859,7 +4996,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" ht="15.6" spans="2:10">
+    <row r="40" spans="2:10" ht="15.75">
       <c r="B40" s="24" t="s">
         <v>271</v>
       </c>
@@ -4879,67 +5016,67 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="13.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="14.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:10">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:10" ht="15.75">
+      <c r="A1" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:6">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -4949,7 +5086,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4973,7 +5110,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4995,7 +5132,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:10">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5017,7 +5154,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:10">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5037,7 +5174,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:10">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5057,7 +5194,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:10">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5079,7 +5216,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:10">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5103,7 +5240,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:10">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5118,14 +5255,14 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="41">
+      <c r="I10" s="40">
         <v>40544.5</v>
       </c>
       <c r="J10" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:10">
+    <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5151,7 +5288,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:10">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5177,7 +5314,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:10">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5192,14 +5329,14 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="41">
+      <c r="I13" s="40">
         <v>40544.5</v>
       </c>
       <c r="J13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:10">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -5225,7 +5362,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:10">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5251,7 +5388,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:10">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5273,7 +5410,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="1:10">
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -5291,11 +5428,11 @@
       <c r="I17" s="3">
         <v>-1</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="41" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:10">
+    <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -5317,7 +5454,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:10">
+    <row r="19" spans="1:12" ht="16.399999999999999">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -5335,57 +5472,57 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="1:12">
-      <c r="A20" s="39">
+    <row r="20" spans="1:12" ht="15.75">
+      <c r="A20" s="38">
         <v>19</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40" t="s">
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="35" t="s">
+      <c r="I20" s="38"/>
+      <c r="J20" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
@@ -5417,7 +5554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:10">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5439,7 +5576,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:11">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5461,14 +5598,14 @@
         <v>143</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="31" t="s">
         <v>362</v>
       </c>
       <c r="K3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:10">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5494,7 +5631,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:10">
+    <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5518,7 +5655,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:11">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5541,11 +5678,11 @@
       <c r="J6" t="s">
         <v>366</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="31" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:10">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5571,7 +5708,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:10">
+    <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5586,14 +5723,14 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="33">
+      <c r="I8" s="32">
         <v>40544.5</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="33" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:11">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5614,11 +5751,11 @@
       <c r="J9" t="s">
         <v>370</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="31" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:10">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5644,7 +5781,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:10">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5670,7 +5807,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:10">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5696,7 +5833,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:10">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5722,7 +5859,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:10">
+    <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -5748,7 +5885,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:10">
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5774,7 +5911,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:10">
+    <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5800,7 +5937,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="1:10">
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -5826,7 +5963,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:10">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -5848,11 +5985,11 @@
         <v>143</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="31" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:10">
+    <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -5862,14 +5999,14 @@
       <c r="C19" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="31" t="s">
         <v>390</v>
       </c>
       <c r="J19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="1:11">
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="28">
         <v>19</v>
       </c>
@@ -5891,12 +6028,12 @@
       <c r="I20" s="28">
         <v>0</v>
       </c>
-      <c r="J20" s="35" t="s">
+      <c r="J20" s="34" t="s">
         <v>393</v>
       </c>
       <c r="K20" s="28"/>
     </row>
-    <row r="21" ht="15.6" spans="1:11">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -5919,43 +6056,113 @@
       </c>
       <c r="K21" s="29"/>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="31" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="102" t="s">
         <v>394</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="103"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="103"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="103"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="103"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="103"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A22:J28"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="1:6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="24.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="16.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5990,7 +6197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -6007,7 +6214,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>396</v>
       </c>
@@ -6021,7 +6228,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="B4" t="s">
         <v>398</v>
       </c>
@@ -6035,7 +6242,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>400</v>
       </c>
@@ -6046,7 +6253,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" s="21" t="s">
         <v>402</v>
       </c>
@@ -6057,7 +6264,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:10">
       <c r="B7" s="21" t="s">
         <v>251</v>
       </c>
@@ -6068,7 +6275,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="2:10">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="B8" s="21" t="s">
         <v>253</v>
       </c>
@@ -6082,7 +6289,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="1:10">
       <c r="B9" s="21" t="s">
         <v>255</v>
       </c>
@@ -6093,7 +6300,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="2:10">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="B10" s="21" t="s">
         <v>257</v>
       </c>
@@ -6107,7 +6314,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="1:10">
       <c r="B11" s="21" t="s">
         <v>265</v>
       </c>
@@ -6118,7 +6325,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="2:10">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="B12" s="21" t="s">
         <v>267</v>
       </c>
@@ -6132,7 +6339,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="1:10">
       <c r="B13" s="21" t="s">
         <v>269</v>
       </c>
@@ -6143,7 +6350,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="2:10">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="B14" s="21" t="s">
         <v>271</v>
       </c>
@@ -6157,7 +6364,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="1:10">
       <c r="B15" s="21" t="s">
         <v>412</v>
       </c>
@@ -6165,7 +6372,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="1:10">
       <c r="B16" s="21" t="s">
         <v>414</v>
       </c>
@@ -6180,22 +6387,20 @@
       <c r="B18" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -6229,7 +6434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -6246,7 +6451,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>372</v>
       </c>
@@ -6261,25 +6466,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="24.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="16.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6314,7 +6517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -6331,7 +6534,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>396</v>
       </c>
@@ -6345,7 +6548,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="B4" t="s">
         <v>398</v>
       </c>
@@ -6359,7 +6562,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>400</v>
       </c>
@@ -6370,7 +6573,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>402</v>
       </c>
@@ -6381,7 +6584,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:10">
       <c r="B7" s="21" t="s">
         <v>251</v>
       </c>
@@ -6392,7 +6595,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="2:10">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="B8" s="21" t="s">
         <v>253</v>
       </c>
@@ -6406,7 +6609,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="1:10">
       <c r="B9" s="21" t="s">
         <v>255</v>
       </c>
@@ -6417,7 +6620,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="2:10">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="B10" s="21" t="s">
         <v>257</v>
       </c>
@@ -6431,7 +6634,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="1:10">
       <c r="B11" s="21" t="s">
         <v>265</v>
       </c>
@@ -6442,7 +6645,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="2:10">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="B12" s="21" t="s">
         <v>267</v>
       </c>
@@ -6456,7 +6659,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="1:10">
       <c r="B13" s="21" t="s">
         <v>269</v>
       </c>
@@ -6467,7 +6670,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="2:10">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="B14" s="21" t="s">
         <v>271</v>
       </c>
@@ -6481,28 +6684,28 @@
         <v>411</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:10">
       <c r="B15" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="12.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6537,7 +6740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -6554,7 +6757,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>372</v>
       </c>
@@ -6568,7 +6771,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>420</v>
       </c>
@@ -6579,7 +6782,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:10">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="B5" t="s">
         <v>422</v>
       </c>
@@ -6594,22 +6797,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -6643,7 +6846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -6660,7 +6863,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>372</v>
       </c>
@@ -6674,7 +6877,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>424</v>
       </c>
@@ -6685,7 +6888,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:10">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="B5" t="s">
         <v>426</v>
       </c>
@@ -6699,7 +6902,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>420</v>
       </c>
@@ -6710,7 +6913,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="2:10">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="B7" t="s">
         <v>422</v>
       </c>
@@ -6724,7 +6927,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="2:10">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="B8" t="s">
         <v>427</v>
       </c>
@@ -6739,22 +6942,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -6788,7 +6989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -6805,7 +7006,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>372</v>
       </c>
@@ -6819,7 +7020,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>430</v>
       </c>
@@ -6830,7 +7031,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:10">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="B5" t="s">
         <v>432</v>
       </c>
@@ -6844,7 +7045,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>424</v>
       </c>
@@ -6855,7 +7056,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="2:10">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="B7" t="s">
         <v>426</v>
       </c>
@@ -6869,7 +7070,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>420</v>
       </c>
@@ -6880,7 +7081,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="2:10">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="B9" t="s">
         <v>422</v>
       </c>
@@ -6895,25 +7096,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
-    <col min="10" max="10" width="14.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6948,7 +7147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -6965,7 +7164,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>430</v>
       </c>
@@ -6981,7 +7180,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="B4" t="s">
         <v>432</v>
       </c>
@@ -6998,7 +7197,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:10">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="B5" t="s">
         <v>433</v>
       </c>
@@ -7015,7 +7214,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="2:10">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="B6" t="s">
         <v>424</v>
       </c>
@@ -7029,7 +7228,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="2:10">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="B7" t="s">
         <v>426</v>
       </c>
@@ -7046,7 +7245,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="2:10">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="B8" t="s">
         <v>420</v>
       </c>
@@ -7060,7 +7259,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="2:10">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="B9" t="s">
         <v>422</v>
       </c>
@@ -7078,32 +7277,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="31.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="40.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="3:6">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
@@ -7117,140 +7316,140 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="3:3">
-      <c r="C2" s="74" t="s">
+    <row r="2" spans="1:6">
+      <c r="C2" s="72" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="74" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="77" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="74" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:4">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="78"/>
-    </row>
-    <row r="6" ht="15.6" spans="1:4">
-      <c r="A6" s="79" t="s">
+      <c r="D5" s="76"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="78"/>
-    </row>
-    <row r="7" ht="15.6" spans="3:6">
-      <c r="C7" s="80" t="s">
+      <c r="D6" s="76"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="C7" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="82"/>
-      <c r="D8" s="83" t="s">
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" s="80"/>
+      <c r="D8" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="78" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="82"/>
-      <c r="D9" s="84" t="s">
+    <row r="9" spans="1:6">
+      <c r="C9" s="80"/>
+      <c r="D9" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="82"/>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="82" t="s">
+      <c r="F9" s="80"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12" s="82"/>
-      <c r="D12" s="84" t="s">
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="80"/>
+      <c r="D12" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="80" t="s">
+      <c r="F12" s="78" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
-      <c r="C13" s="82"/>
-      <c r="D13" s="84" t="s">
+    <row r="13" spans="1:6">
+      <c r="C13" s="80"/>
+      <c r="D13" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="82"/>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="85" t="s">
+      <c r="F13" s="80"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="83" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="4:5">
-      <c r="D16" s="86" t="s">
+    <row r="16" spans="1:6">
+      <c r="D16" s="84" t="s">
         <v>38</v>
       </c>
       <c r="E16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="86" t="s">
+    <row r="17" spans="3:6">
+      <c r="D17" s="84" t="s">
         <v>40</v>
       </c>
       <c r="E17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="85" t="s">
+    <row r="20" spans="3:6">
+      <c r="C20" s="83" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" s="24"/>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="85" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="24" t="s">
@@ -7258,80 +7457,80 @@
       </c>
       <c r="F21" s="24"/>
     </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="85" t="s">
+    <row r="23" spans="3:6">
+      <c r="C23" s="83" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="4:6">
-      <c r="D24" s="84" t="s">
+    <row r="24" spans="3:6">
+      <c r="D24" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="82"/>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="D25" s="84" t="s">
+      <c r="F24" s="80"/>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="D25" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="82"/>
-    </row>
-    <row r="26" spans="4:5">
-      <c r="D26" s="86" t="s">
+      <c r="F25" s="80"/>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="D26" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="88" t="s">
+      <c r="E26" s="86" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
-      <c r="D27" s="89" t="s">
+    <row r="27" spans="3:6">
+      <c r="D27" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="88" t="s">
+      <c r="E27" s="86" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
-      <c r="D28" s="89" t="s">
+    <row r="28" spans="3:6">
+      <c r="D28" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="88" t="s">
+      <c r="E28" s="86" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="4:5">
-      <c r="D29" s="89"/>
+    <row r="29" spans="3:6">
+      <c r="D29" s="87"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="85" t="s">
+    <row r="31" spans="3:6">
+      <c r="C31" s="83" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
-      <c r="D32" s="86" t="s">
+    <row r="32" spans="3:6">
+      <c r="D32" s="84" t="s">
         <v>57</v>
       </c>
       <c r="E32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
-      <c r="D33" s="86" t="s">
+    <row r="33" spans="3:6">
+      <c r="D33" s="84" t="s">
         <v>59</v>
       </c>
       <c r="E33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
-      <c r="D34" s="86" t="s">
+    <row r="34" spans="3:6">
+      <c r="D34" s="84" t="s">
         <v>61</v>
       </c>
       <c r="E34" t="s">
@@ -7340,22 +7539,22 @@
     </row>
     <row r="35" spans="3:6">
       <c r="C35" s="24"/>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="90" t="s">
+      <c r="E35" s="88" t="s">
         <v>64</v>
       </c>
       <c r="F35" s="24"/>
     </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="85" t="s">
+    <row r="39" spans="3:6">
+      <c r="C39" s="83" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="40" spans="3:6">
-      <c r="C40" s="91"/>
-      <c r="D40" s="87" t="s">
+      <c r="C40" s="89"/>
+      <c r="D40" s="85" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="24" t="s">
@@ -7365,175 +7564,175 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="3:5">
-      <c r="C41" s="91"/>
-      <c r="D41" s="89" t="s">
+    <row r="41" spans="3:6">
+      <c r="C41" s="89"/>
+      <c r="D41" s="87" t="s">
         <v>69</v>
       </c>
       <c r="E41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="4:5">
-      <c r="D42" s="86" t="s">
+    <row r="42" spans="3:6">
+      <c r="D42" s="84" t="s">
         <v>71</v>
       </c>
       <c r="E42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
-      <c r="D43" s="86" t="s">
+    <row r="43" spans="3:6">
+      <c r="D43" s="84" t="s">
         <v>73</v>
       </c>
       <c r="E43" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="4:6">
-      <c r="D44" s="84" t="s">
+    <row r="44" spans="3:6">
+      <c r="D44" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="82" t="s">
+      <c r="E44" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="82" t="s">
+      <c r="F44" s="80" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="4:5">
-      <c r="D45" s="86" t="s">
+    <row r="45" spans="3:6">
+      <c r="D45" s="84" t="s">
         <v>78</v>
       </c>
       <c r="E45" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="4:5">
-      <c r="D46" s="86" t="s">
+    <row r="46" spans="3:6">
+      <c r="D46" s="84" t="s">
         <v>80</v>
       </c>
       <c r="E46" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="4:6">
-      <c r="D47" s="84" t="s">
+    <row r="47" spans="3:6">
+      <c r="D47" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="82" t="s">
+      <c r="E47" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="82"/>
-    </row>
-    <row r="48" spans="4:6">
-      <c r="D48" s="84" t="s">
+      <c r="F47" s="80"/>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="D48" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="82" t="s">
+      <c r="E48" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="F48" s="82"/>
-    </row>
-    <row r="49" spans="4:6">
-      <c r="D49" s="84" t="s">
+      <c r="F48" s="80"/>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="D49" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="82" t="s">
+      <c r="E49" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="82" t="s">
+      <c r="F49" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="4:6">
-      <c r="D50" s="84" t="s">
+    <row r="50" spans="3:6">
+      <c r="D50" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="E50" s="82" t="s">
+      <c r="E50" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="F50" s="82" t="s">
+      <c r="F50" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="4:6">
-      <c r="D51" s="82" t="s">
+    <row r="51" spans="3:6">
+      <c r="D51" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="82" t="s">
+      <c r="E51" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="F51" s="82"/>
-    </row>
-    <row r="52" spans="4:6">
-      <c r="D52" s="84" t="s">
+      <c r="F51" s="80"/>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="D52" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="82" t="s">
+      <c r="E52" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="F52" s="82"/>
-    </row>
-    <row r="53" spans="4:6">
-      <c r="D53" s="84" t="s">
+      <c r="F52" s="80"/>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="D53" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="82" t="s">
+      <c r="E53" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="F53" s="82"/>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" s="85" t="s">
+      <c r="F53" s="80"/>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" s="83" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="3:5">
-      <c r="C55" s="91"/>
-      <c r="D55" s="92" t="s">
+    <row r="55" spans="3:6">
+      <c r="C55" s="89"/>
+      <c r="D55" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="91" t="s">
+      <c r="E55" s="89" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="3:5">
-      <c r="C56" s="88"/>
-      <c r="D56" s="92" t="s">
+    <row r="56" spans="3:6">
+      <c r="C56" s="86"/>
+      <c r="D56" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="E56" s="88" t="s">
+      <c r="E56" s="86" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="3:5">
-      <c r="C57" s="88"/>
-      <c r="D57" s="92" t="s">
+    <row r="57" spans="3:6">
+      <c r="C57" s="86"/>
+      <c r="D57" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="88" t="s">
+      <c r="E57" s="86" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
-      <c r="C59" s="85" t="s">
+    <row r="59" spans="3:6">
+      <c r="C59" s="83" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="4:6">
-      <c r="D60" s="86" t="s">
+    <row r="60" spans="3:6">
+      <c r="D60" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="52" t="s">
+      <c r="E60" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="F60" s="93" t="s">
+      <c r="F60" s="91" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="4:6">
-      <c r="D61" s="86" t="s">
+    <row r="61" spans="3:6">
+      <c r="D61" s="84" t="s">
         <v>108</v>
       </c>
       <c r="E61" t="s">
@@ -7541,31 +7740,31 @@
       </c>
       <c r="F61" s="21"/>
     </row>
-    <row r="62" spans="6:6">
+    <row r="62" spans="3:6">
       <c r="F62" s="21"/>
     </row>
-    <row r="63" spans="6:6">
+    <row r="63" spans="3:6">
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="3:6">
-      <c r="C64" s="85" t="s">
+      <c r="C64" s="83" t="s">
         <v>110</v>
       </c>
       <c r="F64" s="21"/>
     </row>
-    <row r="65" spans="4:6">
-      <c r="D65" s="86" t="s">
+    <row r="65" spans="3:6">
+      <c r="D65" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="E65" s="52" t="s">
+      <c r="E65" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="F65" s="93" t="s">
+      <c r="F65" s="91" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="4:6">
-      <c r="D66" s="86" t="s">
+    <row r="66" spans="3:6">
+      <c r="D66" s="84" t="s">
         <v>114</v>
       </c>
       <c r="E66" t="s">
@@ -7573,14 +7772,14 @@
       </c>
       <c r="F66" s="21"/>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:6">
       <c r="C68" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="69" spans="3:6">
       <c r="C69" s="24"/>
-      <c r="D69" s="94" t="s">
+      <c r="D69" s="92" t="s">
         <v>117</v>
       </c>
       <c r="E69" s="24" t="s">
@@ -7590,17 +7789,17 @@
     </row>
     <row r="70" spans="3:6">
       <c r="C70" s="24"/>
-      <c r="D70" s="87" t="s">
+      <c r="D70" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="E70" s="90" t="s">
+      <c r="E70" s="88" t="s">
         <v>120</v>
       </c>
       <c r="F70" s="24"/>
     </row>
     <row r="71" spans="3:6">
       <c r="C71" s="24"/>
-      <c r="D71" s="87" t="s">
+      <c r="D71" s="85" t="s">
         <v>121</v>
       </c>
       <c r="E71" s="24" t="s">
@@ -7608,21 +7807,22 @@
       </c>
       <c r="F71" s="24"/>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="3:6">
       <c r="C73" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="3:5">
+    <row r="74" spans="3:6">
       <c r="C74" s="24"/>
-      <c r="D74" s="87" t="s">
+      <c r="D74" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="E74" s="90" t="s">
+      <c r="E74" s="88" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D35" location="freight_rates!A1" display="freight_rates"/>
     <hyperlink ref="D74" location="collect_info!A1" display="collect_info"/>
@@ -7667,24 +7867,23 @@
     <hyperlink ref="D4" location="userinfo!A1" display="userinfo"/>
     <hyperlink ref="D3" location="usermanager!A1" display="usermanager"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="B7:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7719,7 +7918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -7736,7 +7935,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>372</v>
       </c>
@@ -7753,7 +7952,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="B4" t="s">
         <v>427</v>
       </c>
@@ -7770,7 +7969,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:10">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="B5" t="s">
         <v>166</v>
       </c>
@@ -7787,7 +7986,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="2:10">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="B6" t="s">
         <v>430</v>
       </c>
@@ -7801,7 +8000,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="2:10">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="B7" s="21" t="s">
         <v>432</v>
       </c>
@@ -7818,7 +8017,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="2:10">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="B8" s="21" t="s">
         <v>424</v>
       </c>
@@ -7832,7 +8031,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="2:10">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="B9" s="21" t="s">
         <v>426</v>
       </c>
@@ -7849,7 +8048,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="2:10">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="B10" s="21" t="s">
         <v>420</v>
       </c>
@@ -7863,7 +8062,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="2:10">
+    <row r="11" spans="1:10" ht="15.75">
       <c r="B11" s="21" t="s">
         <v>422</v>
       </c>
@@ -7880,7 +8079,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="2:10">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="B12" s="21" t="s">
         <v>139</v>
       </c>
@@ -7892,7 +8091,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="2:10">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="B13" s="21" t="s">
         <v>211</v>
       </c>
@@ -7906,7 +8105,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="2:10">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="B14" s="21" t="s">
         <v>217</v>
       </c>
@@ -7920,7 +8119,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="2:10">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="B15" s="21" t="s">
         <v>221</v>
       </c>
@@ -7934,7 +8133,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="2:10">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="B16" s="21" t="s">
         <v>223</v>
       </c>
@@ -7948,7 +8147,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="2:10">
+    <row r="17" spans="2:10" ht="15.75">
       <c r="B17" s="21" t="s">
         <v>442</v>
       </c>
@@ -7965,34 +8164,32 @@
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:10">
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:10">
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
-    <col min="10" max="10" width="26.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -8027,7 +8224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -8044,7 +8241,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>139</v>
       </c>
@@ -8058,7 +8255,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="B4" t="s">
         <v>442</v>
       </c>
@@ -8076,24 +8273,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="9" max="9" width="9.66666666666667"/>
+    <col min="9" max="9" width="9.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -8128,7 +8323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -8145,7 +8340,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>445</v>
       </c>
@@ -8159,7 +8354,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -8173,7 +8368,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>447</v>
       </c>
@@ -8187,7 +8382,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>204</v>
       </c>
@@ -8202,24 +8397,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8255,7 +8448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -8272,7 +8465,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>450</v>
       </c>
@@ -8286,7 +8479,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>139</v>
       </c>
@@ -8298,24 +8491,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8351,7 +8544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -8368,7 +8561,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>372</v>
       </c>
@@ -8386,28 +8579,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="13.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
@@ -8439,7 +8630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -8456,7 +8647,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="B3" t="s">
         <v>432</v>
       </c>
@@ -8473,7 +8664,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>420</v>
       </c>
@@ -8491,28 +8682,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="10" max="10" width="18.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="17.7777777777778" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
@@ -8544,7 +8735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -8561,7 +8752,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="B3" t="s">
         <v>442</v>
       </c>
@@ -8578,7 +8769,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" ht="57.6" spans="2:11">
+    <row r="4" spans="1:11" ht="52.4">
       <c r="B4" t="s">
         <v>139</v>
       </c>
@@ -8596,29 +8787,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="18.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="17.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
@@ -8650,7 +8839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -8667,7 +8856,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="B3" t="s">
         <v>450</v>
       </c>
@@ -8684,7 +8873,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="B4" t="s">
         <v>424</v>
       </c>
@@ -8696,7 +8885,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>460</v>
       </c>
@@ -8714,26 +8903,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="13.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="18.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -8768,7 +8957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -8785,7 +8974,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>202</v>
       </c>
@@ -8799,7 +8988,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="B4" t="s">
         <v>463</v>
       </c>
@@ -8822,7 +9011,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:10">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="B5" t="s">
         <v>149</v>
       </c>
@@ -8845,7 +9034,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="2:10">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="B6" t="s">
         <v>171</v>
       </c>
@@ -8865,7 +9054,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>204</v>
       </c>
@@ -8879,7 +9068,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="2:10">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="B8" s="21" t="s">
         <v>412</v>
       </c>
@@ -8894,7 +9083,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="2:10">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="B9" s="21" t="s">
         <v>396</v>
       </c>
@@ -8914,7 +9103,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="2:10">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="B10" s="21" t="s">
         <v>414</v>
       </c>
@@ -8929,7 +9118,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="2:10">
+    <row r="11" spans="1:10" ht="15.75">
       <c r="B11" s="21" t="s">
         <v>398</v>
       </c>
@@ -8949,7 +9138,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="2:10">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="B12" s="21" t="s">
         <v>225</v>
       </c>
@@ -8966,7 +9155,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="2:10">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="B13" s="21" t="s">
         <v>233</v>
       </c>
@@ -8983,7 +9172,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="2:10">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="B14" s="21" t="s">
         <v>231</v>
       </c>
@@ -9000,7 +9189,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="2:10">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="B15" s="21" t="s">
         <v>235</v>
       </c>
@@ -9017,7 +9206,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="2:10">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="B16" s="21" t="s">
         <v>155</v>
       </c>
@@ -9034,7 +9223,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="2:10">
+    <row r="17" spans="2:10" ht="15.75">
       <c r="B17" s="21" t="s">
         <v>251</v>
       </c>
@@ -9048,7 +9237,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="2:10">
+    <row r="18" spans="2:10" ht="15.75">
       <c r="B18" s="21" t="s">
         <v>253</v>
       </c>
@@ -9065,7 +9254,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="2:10">
+    <row r="19" spans="2:10" ht="15.75">
       <c r="B19" s="21" t="s">
         <v>255</v>
       </c>
@@ -9079,7 +9268,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="2:10">
+    <row r="20" spans="2:10" ht="15.75">
       <c r="B20" s="21" t="s">
         <v>257</v>
       </c>
@@ -9096,7 +9285,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="2:10">
+    <row r="21" spans="2:10" ht="15.75">
       <c r="B21" s="21" t="s">
         <v>265</v>
       </c>
@@ -9110,7 +9299,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="2:10">
+    <row r="22" spans="2:10" ht="15.75">
       <c r="B22" s="21" t="s">
         <v>267</v>
       </c>
@@ -9127,7 +9316,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="2:10">
+    <row r="23" spans="2:10" ht="15.75">
       <c r="B23" s="21" t="s">
         <v>269</v>
       </c>
@@ -9141,7 +9330,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="2:10">
+    <row r="24" spans="2:10" ht="15.75">
       <c r="B24" s="21" t="s">
         <v>271</v>
       </c>
@@ -9158,7 +9347,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="2:10">
+    <row r="25" spans="2:10" ht="15.75">
       <c r="B25" s="21" t="s">
         <v>245</v>
       </c>
@@ -9175,7 +9364,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="2:10">
+    <row r="26" spans="2:10" ht="15.75">
       <c r="B26" s="21" t="s">
         <v>263</v>
       </c>
@@ -9206,7 +9395,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" ht="28.8" spans="2:10">
+    <row r="28" spans="2:10" ht="26.2">
       <c r="B28" s="24" t="s">
         <v>273</v>
       </c>
@@ -9223,41 +9412,41 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="2:9">
+    <row r="29" spans="2:10" ht="15.75">
       <c r="B29" s="21"/>
       <c r="G29" s="3"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" ht="15.6" spans="7:9">
+    <row r="30" spans="2:10" ht="15.75">
       <c r="G30" s="3"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" ht="15.6" spans="7:7">
+    <row r="31" spans="2:10" ht="15.75">
       <c r="G31" s="3"/>
     </row>
-    <row r="32" ht="15.6" spans="7:7">
+    <row r="32" spans="2:10" ht="15.75">
       <c r="G32" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B26" sqref="B13:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="13.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -9292,7 +9481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -9309,7 +9498,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>202</v>
       </c>
@@ -9326,7 +9515,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="B4" t="s">
         <v>463</v>
       </c>
@@ -9349,7 +9538,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:10">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="B5" t="s">
         <v>149</v>
       </c>
@@ -9372,7 +9561,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="2:10">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="B6" t="s">
         <v>171</v>
       </c>
@@ -9392,7 +9581,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="2:10">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="B7" t="s">
         <v>204</v>
       </c>
@@ -9409,7 +9598,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="2:10">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="B8" t="s">
         <v>396</v>
       </c>
@@ -9429,7 +9618,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="2:10">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="B9" t="s">
         <v>398</v>
       </c>
@@ -9449,7 +9638,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="2:10">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="B10" t="s">
         <v>225</v>
       </c>
@@ -9466,7 +9655,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="2:10">
+    <row r="11" spans="1:10" ht="15.75">
       <c r="B11" t="s">
         <v>233</v>
       </c>
@@ -9483,7 +9672,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="2:10">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="B12" t="s">
         <v>231</v>
       </c>
@@ -9500,7 +9689,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="2:10">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="B13" s="21" t="s">
         <v>235</v>
       </c>
@@ -9517,7 +9706,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="2:10">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="B14" s="21" t="s">
         <v>155</v>
       </c>
@@ -9532,7 +9721,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="2:10">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="B15" s="21" t="s">
         <v>412</v>
       </c>
@@ -9547,7 +9736,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="2:10">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="B16" s="21" t="s">
         <v>414</v>
       </c>
@@ -9562,7 +9751,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="2:10">
+    <row r="17" spans="2:10" ht="15.75">
       <c r="B17" s="21" t="s">
         <v>251</v>
       </c>
@@ -9576,7 +9765,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="2:10">
+    <row r="18" spans="2:10" ht="15.75">
       <c r="B18" s="21" t="s">
         <v>253</v>
       </c>
@@ -9593,7 +9782,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="2:10">
+    <row r="19" spans="2:10" ht="15.75">
       <c r="B19" s="21" t="s">
         <v>255</v>
       </c>
@@ -9607,7 +9796,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="2:10">
+    <row r="20" spans="2:10" ht="15.75">
       <c r="B20" s="21" t="s">
         <v>257</v>
       </c>
@@ -9624,7 +9813,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="2:10">
+    <row r="21" spans="2:10" ht="15.75">
       <c r="B21" s="21" t="s">
         <v>265</v>
       </c>
@@ -9638,7 +9827,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="2:10">
+    <row r="22" spans="2:10" ht="15.75">
       <c r="B22" s="21" t="s">
         <v>267</v>
       </c>
@@ -9655,7 +9844,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="2:10">
+    <row r="23" spans="2:10" ht="15.75">
       <c r="B23" s="21" t="s">
         <v>269</v>
       </c>
@@ -9669,7 +9858,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="2:10">
+    <row r="24" spans="2:10" ht="15.75">
       <c r="B24" s="21" t="s">
         <v>271</v>
       </c>
@@ -9686,37 +9875,37 @@
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:10">
       <c r="B25" s="21"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:10">
       <c r="B26" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.1"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="11.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="24.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="9.44444444444444" customWidth="1"/>
-    <col min="10" max="10" width="28.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -9759,7 +9948,7 @@
       <c r="C2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>137</v>
       </c>
       <c r="F2" s="27" t="s">
@@ -9772,7 +9961,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>139</v>
@@ -9835,10 +10024,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="8"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="71" t="s">
         <v>142</v>
       </c>
       <c r="D6">
@@ -9850,16 +10039,16 @@
         <v>143</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="71" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="8"/>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="71" t="s">
         <v>150</v>
       </c>
       <c r="D7">
@@ -9871,7 +10060,7 @@
         <v>143</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="73" t="s">
+      <c r="J7" s="71" t="s">
         <v>151</v>
       </c>
     </row>
@@ -9886,7 +10075,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="67">
+      <c r="I8" s="66">
         <v>25569</v>
       </c>
       <c r="J8" s="8" t="s">
@@ -9923,30 +10112,30 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="47"/>
-      <c r="D21" s="47"/>
+    <row r="21" spans="2:4" ht="15.05">
+      <c r="B21" s="46"/>
+      <c r="D21" s="46"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="13.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -9981,7 +10170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -9998,7 +10187,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>202</v>
       </c>
@@ -10012,7 +10201,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="B4" t="s">
         <v>463</v>
       </c>
@@ -10035,7 +10224,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:10">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="B5" t="s">
         <v>149</v>
       </c>
@@ -10058,7 +10247,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" s="21" t="s">
         <v>204</v>
       </c>
@@ -10072,7 +10261,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="2:10">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="B7" s="21" t="s">
         <v>412</v>
       </c>
@@ -10087,7 +10276,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="2:10">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="B8" s="21" t="s">
         <v>396</v>
       </c>
@@ -10107,7 +10296,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="2:10">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="B9" s="21" t="s">
         <v>414</v>
       </c>
@@ -10122,7 +10311,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="2:10">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="B10" s="21" t="s">
         <v>398</v>
       </c>
@@ -10142,7 +10331,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="2:10">
+    <row r="11" spans="1:10" ht="15.75">
       <c r="B11" s="21" t="s">
         <v>225</v>
       </c>
@@ -10159,7 +10348,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="2:10">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="B12" s="21" t="s">
         <v>233</v>
       </c>
@@ -10176,7 +10365,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="2:10">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="B13" s="21" t="s">
         <v>471</v>
       </c>
@@ -10193,7 +10382,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="2:10">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="B14" s="21" t="s">
         <v>231</v>
       </c>
@@ -10210,7 +10399,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="2:10">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="B15" s="21" t="s">
         <v>235</v>
       </c>
@@ -10227,7 +10416,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="2:10">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="B16" s="21" t="s">
         <v>155</v>
       </c>
@@ -10255,7 +10444,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="2:10">
+    <row r="18" spans="2:10" ht="15.75">
       <c r="B18" s="21" t="s">
         <v>253</v>
       </c>
@@ -10280,7 +10469,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="2:10">
+    <row r="20" spans="2:10" ht="15.75">
       <c r="B20" s="21" t="s">
         <v>257</v>
       </c>
@@ -10305,7 +10494,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="2:10">
+    <row r="22" spans="2:10" ht="15.75">
       <c r="B22" s="21" t="s">
         <v>267</v>
       </c>
@@ -10330,7 +10519,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="2:10">
+    <row r="24" spans="2:10" ht="15.75">
       <c r="B24" s="21" t="s">
         <v>271</v>
       </c>
@@ -10344,7 +10533,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="2:10">
+    <row r="25" spans="2:10" ht="15.75">
       <c r="B25" s="21" t="s">
         <v>245</v>
       </c>
@@ -10361,7 +10550,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="2:10">
+    <row r="26" spans="2:10" ht="15.75">
       <c r="B26" s="21" t="s">
         <v>263</v>
       </c>
@@ -10392,7 +10581,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" ht="57.6" spans="2:10">
+    <row r="28" spans="2:10" ht="52.4">
       <c r="B28" s="24" t="s">
         <v>273</v>
       </c>
@@ -10410,25 +10599,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B13:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="13.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10463,7 +10652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -10480,7 +10669,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>202</v>
       </c>
@@ -10497,7 +10686,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="B4" t="s">
         <v>463</v>
       </c>
@@ -10520,7 +10709,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:10">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="B5" t="s">
         <v>149</v>
       </c>
@@ -10543,7 +10732,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="2:10">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="B6" t="s">
         <v>204</v>
       </c>
@@ -10560,7 +10749,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="2:10">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="B7" t="s">
         <v>396</v>
       </c>
@@ -10580,7 +10769,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="2:10">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="B8" t="s">
         <v>398</v>
       </c>
@@ -10600,7 +10789,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="2:10">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="B9" t="s">
         <v>225</v>
       </c>
@@ -10617,7 +10806,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="2:10">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="B10" t="s">
         <v>233</v>
       </c>
@@ -10634,7 +10823,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="2:10">
+    <row r="11" spans="1:10" ht="15.75">
       <c r="B11" t="s">
         <v>231</v>
       </c>
@@ -10651,7 +10840,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="2:10">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="B12" t="s">
         <v>235</v>
       </c>
@@ -10668,7 +10857,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="2:10">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="B13" s="21" t="s">
         <v>155</v>
       </c>
@@ -10683,7 +10872,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="2:10">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="B14" s="21" t="s">
         <v>412</v>
       </c>
@@ -10698,7 +10887,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="2:10">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="B15" s="21" t="s">
         <v>414</v>
       </c>
@@ -10713,7 +10902,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="2:10">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="B16" s="21" t="s">
         <v>251</v>
       </c>
@@ -10727,7 +10916,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="2:10">
+    <row r="17" spans="2:10" ht="15.75">
       <c r="B17" s="21" t="s">
         <v>253</v>
       </c>
@@ -10744,7 +10933,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="2:10">
+    <row r="18" spans="2:10" ht="15.75">
       <c r="B18" s="21" t="s">
         <v>255</v>
       </c>
@@ -10758,7 +10947,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="2:10">
+    <row r="19" spans="2:10" ht="15.75">
       <c r="B19" s="21" t="s">
         <v>257</v>
       </c>
@@ -10775,7 +10964,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="2:10">
+    <row r="20" spans="2:10" ht="15.75">
       <c r="B20" s="21" t="s">
         <v>265</v>
       </c>
@@ -10789,7 +10978,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="2:10">
+    <row r="21" spans="2:10" ht="15.75">
       <c r="B21" s="21" t="s">
         <v>267</v>
       </c>
@@ -10806,7 +10995,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="2:10">
+    <row r="22" spans="2:10" ht="15.75">
       <c r="B22" s="21" t="s">
         <v>269</v>
       </c>
@@ -10820,7 +11009,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="2:10">
+    <row r="23" spans="2:10" ht="15.75">
       <c r="B23" s="21" t="s">
         <v>271</v>
       </c>
@@ -10837,32 +11026,32 @@
         <v>411</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:10">
       <c r="B24" s="21"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:10">
       <c r="B25" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="13.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10897,7 +11086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -10914,7 +11103,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>207</v>
       </c>
@@ -10929,63 +11118,63 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="7:8">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="G4" s="3"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" ht="15.6" spans="7:8">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="G5" s="3"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" ht="15.6" spans="7:9">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="G6" s="3"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" ht="15.6" spans="7:8">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="G7" s="3"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" ht="15.6" spans="7:8">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="G8" s="3"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" ht="15.6" spans="7:7">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="G9" s="3"/>
     </row>
-    <row r="10" ht="15.6" spans="7:7">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="G10" s="3"/>
     </row>
-    <row r="11" ht="15.6" spans="7:9">
+    <row r="11" spans="1:10" ht="15.75">
       <c r="G11" s="3"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" ht="15.6" spans="7:7">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="G12" s="3"/>
     </row>
-    <row r="13" ht="15.6" spans="7:7">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="G13" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="13.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="45.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11020,7 +11209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -11037,7 +11226,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>474</v>
       </c>
@@ -11058,7 +11247,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" ht="78.05" customHeight="1" spans="2:10">
+    <row r="4" spans="1:10" ht="78.05" customHeight="1">
       <c r="B4" t="s">
         <v>476</v>
       </c>
@@ -11071,56 +11260,87 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:10">
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="19.649999999999999" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D5" s="25">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75">
+      <c r="B6" t="s">
         <v>139</v>
       </c>
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="I5" s="22"/>
-      <c r="J5" t="s">
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="I6" s="22"/>
+      <c r="J6" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="2:10">
-      <c r="B6" t="s">
+    <row r="7" spans="1:10" s="25" customFormat="1" ht="15.75">
+      <c r="B7" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75">
+      <c r="B8" t="s">
         <v>204</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>153</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>255</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="20"/>
-      <c r="J6" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="20"/>
+      <c r="J8" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J6"/>
+      <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="10.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="34.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11155,7 +11375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -11172,7 +11392,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>368</v>
       </c>
@@ -11193,7 +11413,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="B4" t="s">
         <v>480</v>
       </c>
@@ -11214,7 +11434,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:10">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="B5" t="s">
         <v>139</v>
       </c>
@@ -11229,7 +11449,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="2:10">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="B6" t="s">
         <v>204</v>
       </c>
@@ -11248,26 +11468,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="10.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="34.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11302,7 +11522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>135</v>
       </c>
@@ -11319,7 +11539,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="B4" t="s">
         <v>483</v>
       </c>
@@ -11340,7 +11560,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:10">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="B5" t="s">
         <v>480</v>
       </c>
@@ -11361,7 +11581,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="2:10">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="B6" t="s">
         <v>139</v>
       </c>
@@ -11376,7 +11596,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="2:10">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="B7" t="s">
         <v>204</v>
       </c>
@@ -11394,7 +11614,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>235</v>
       </c>
@@ -11406,26 +11626,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="10.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="34.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11460,7 +11680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>135</v>
       </c>
@@ -11477,7 +11697,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="B4" t="s">
         <v>488</v>
       </c>
@@ -11498,7 +11718,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:10">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="B5" t="s">
         <v>202</v>
       </c>
@@ -11511,7 +11731,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="2:10">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="B6" t="s">
         <v>155</v>
       </c>
@@ -11524,7 +11744,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="2:10">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="B7" t="s">
         <v>204</v>
       </c>
@@ -11543,26 +11763,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="13.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="34.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11597,7 +11815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>135</v>
       </c>
@@ -11614,7 +11832,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="B4" t="s">
         <v>447</v>
       </c>
@@ -11630,7 +11848,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>492</v>
       </c>
@@ -11647,7 +11865,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>493</v>
       </c>
@@ -11664,7 +11882,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>495</v>
       </c>
@@ -11681,7 +11899,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="2:10">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="B8" t="s">
         <v>496</v>
       </c>
@@ -11700,7 +11918,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="2:10">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="B9" t="s">
         <v>498</v>
       </c>
@@ -11719,7 +11937,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="2:10">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="B10" t="s">
         <v>500</v>
       </c>
@@ -11738,7 +11956,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="2:10">
+    <row r="11" spans="1:10" ht="15.75">
       <c r="B11" t="s">
         <v>502</v>
       </c>
@@ -11757,7 +11975,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="2:10">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="B12" t="s">
         <v>504</v>
       </c>
@@ -11776,7 +11994,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="2:10">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="B13" t="s">
         <v>506</v>
       </c>
@@ -11795,7 +12013,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="2:10">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="B14" t="s">
         <v>508</v>
       </c>
@@ -11814,7 +12032,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="2:10">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="B15" t="s">
         <v>510</v>
       </c>
@@ -11833,7 +12051,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="2:10">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="B16" t="s">
         <v>512</v>
       </c>
@@ -11852,7 +12070,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="2:10">
+    <row r="17" spans="2:10" ht="15.75">
       <c r="B17" t="s">
         <v>514</v>
       </c>
@@ -11871,7 +12089,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="2:10">
+    <row r="18" spans="2:10" ht="15.75">
       <c r="B18" t="s">
         <v>516</v>
       </c>
@@ -11890,7 +12108,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="2:10">
+    <row r="19" spans="2:10" ht="15.75">
       <c r="B19" t="s">
         <v>518</v>
       </c>
@@ -11909,7 +12127,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="2:10">
+    <row r="20" spans="2:10" ht="15.75">
       <c r="B20" t="s">
         <v>520</v>
       </c>
@@ -11928,7 +12146,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="2:10">
+    <row r="21" spans="2:10" ht="15.75">
       <c r="B21" t="s">
         <v>204</v>
       </c>
@@ -11947,25 +12165,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="16.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="29.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -12000,7 +12218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>135</v>
       </c>
@@ -12017,7 +12235,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="B4" t="s">
         <v>202</v>
       </c>
@@ -12030,7 +12248,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>139</v>
       </c>
@@ -12041,7 +12259,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>149</v>
       </c>
@@ -12052,7 +12270,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="2:10">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="B7" t="s">
         <v>204</v>
       </c>
@@ -12067,7 +12285,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>524</v>
       </c>
@@ -12079,22 +12297,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -12128,7 +12346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>135</v>
       </c>
@@ -12145,7 +12363,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="B4" t="s">
         <v>202</v>
       </c>
@@ -12158,7 +12376,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:10">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="B5" t="s">
         <v>483</v>
       </c>
@@ -12171,7 +12389,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>527</v>
       </c>
@@ -12182,7 +12400,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>529</v>
       </c>
@@ -12193,7 +12411,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="2:10">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="B8" t="s">
         <v>204</v>
       </c>
@@ -12208,7 +12426,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="1:10">
       <c r="B9" t="s">
         <v>488</v>
       </c>
@@ -12223,34 +12441,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.1"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="10.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="8.77777777777778" customWidth="1"/>
-    <col min="5" max="5" width="8.44444444444444" customWidth="1"/>
-    <col min="8" max="8" width="10.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="9.44444444444444" customWidth="1"/>
-    <col min="10" max="10" width="21.1111111111111" style="5" customWidth="1"/>
-    <col min="11" max="11" width="19.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
         <v>126</v>
       </c>
@@ -12282,7 +12500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:15">
       <c r="A2" s="8"/>
       <c r="B2" s="8" t="s">
         <v>135</v>
@@ -12290,10 +12508,10 @@
       <c r="C2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="50" t="s">
         <v>137</v>
       </c>
       <c r="G2" s="8"/>
@@ -12303,7 +12521,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:10">
+    <row r="3" spans="1:15" ht="26.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>139</v>
@@ -12317,11 +12535,11 @@
       <c r="I3" s="8">
         <v>0</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="64" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:10">
+    <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
         <v>141</v>
@@ -12342,7 +12560,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:10">
+    <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>145</v>
@@ -12363,7 +12581,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:10">
+    <row r="6" spans="1:15" ht="26.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
         <v>149</v>
@@ -12384,7 +12602,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:10">
+    <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>147</v>
@@ -12405,28 +12623,28 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" s="52" customFormat="1" ht="15.6" spans="1:10">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55" t="s">
+    <row r="8" spans="1:15" s="51" customFormat="1" ht="15.75">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="52">
+      <c r="C8" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="51">
         <v>100</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56" t="s">
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="66" t="s">
+      <c r="I8" s="54"/>
+      <c r="J8" s="65" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:15">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>152</v>
@@ -12437,14 +12655,14 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="67">
+      <c r="I9" s="66">
         <v>25569</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:15">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>155</v>
@@ -12462,7 +12680,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" ht="43.2" spans="1:10">
+    <row r="11" spans="1:15" ht="26.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
         <v>164</v>
@@ -12480,7 +12698,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:15">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>166</v>
@@ -12518,119 +12736,119 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" s="53" customFormat="1" spans="1:15">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57" t="s">
+    <row r="14" spans="1:15" s="52" customFormat="1">
+      <c r="A14" s="56"/>
+      <c r="B14" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="57">
+      <c r="C14" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="56">
         <v>255</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="68" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="K14" s="69" t="s">
+      <c r="K14" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-    </row>
-    <row r="15" s="53" customFormat="1" spans="1:15">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57" t="s">
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+    </row>
+    <row r="15" spans="1:15" s="52" customFormat="1">
+      <c r="A15" s="56"/>
+      <c r="B15" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="57">
+      <c r="C15" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="56">
         <v>255</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="68" t="s">
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="K15" s="69"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-    </row>
-    <row r="16" s="53" customFormat="1" spans="1:15">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57" t="s">
+      <c r="K15" s="101"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+    </row>
+    <row r="16" spans="1:15" s="52" customFormat="1">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="57">
+      <c r="C16" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="56">
         <v>255</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="68" t="s">
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="K16" s="69"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-    </row>
-    <row r="17" s="53" customFormat="1" spans="1:15">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57" t="s">
+      <c r="K16" s="101"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+    </row>
+    <row r="17" spans="1:15" s="52" customFormat="1">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="57">
+      <c r="C17" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="56">
         <v>255</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="68" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="K17" s="69"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-    </row>
-    <row r="18" ht="10.5" customHeight="1" spans="1:15">
+      <c r="K17" s="101"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+    </row>
+    <row r="18" spans="1:15" ht="10.5" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="57" t="s">
         <v>177</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -12653,306 +12871,306 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" s="54" customFormat="1" spans="1:15">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59" t="s">
+    <row r="19" spans="1:15" s="53" customFormat="1">
+      <c r="A19" s="57"/>
+      <c r="B19" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="58">
+      <c r="C19" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="57">
         <v>255</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="70" t="s">
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-    </row>
-    <row r="20" s="54" customFormat="1" spans="1:15">
-      <c r="A20" s="58"/>
-      <c r="B20" s="60" t="s">
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+    </row>
+    <row r="20" spans="1:15" s="53" customFormat="1">
+      <c r="A20" s="57"/>
+      <c r="B20" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="57">
+      <c r="C20" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="56">
         <v>100</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="71" t="s">
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-    </row>
-    <row r="21" s="54" customFormat="1" spans="1:15">
-      <c r="A21" s="58"/>
-      <c r="B21" s="61" t="s">
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+    </row>
+    <row r="21" spans="1:15" s="53" customFormat="1" ht="14.4">
+      <c r="A21" s="57"/>
+      <c r="B21" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="57">
+      <c r="C21" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="56">
         <v>100</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="70" t="s">
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-    </row>
-    <row r="22" s="54" customFormat="1" spans="1:15">
-      <c r="A22" s="58"/>
-      <c r="B22" s="62" t="s">
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+    </row>
+    <row r="22" spans="1:15" s="53" customFormat="1">
+      <c r="A22" s="57"/>
+      <c r="B22" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="57">
+      <c r="C22" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="56">
         <v>100</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="70" t="s">
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-    </row>
-    <row r="23" s="54" customFormat="1" spans="1:15">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59" t="s">
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+    </row>
+    <row r="23" spans="1:15" s="53" customFormat="1">
+      <c r="A23" s="57"/>
+      <c r="B23" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="C23" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="58">
+      <c r="C23" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="57">
         <v>100</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="70" t="s">
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-    </row>
-    <row r="24" s="54" customFormat="1" ht="11.3" customHeight="1" spans="1:15">
-      <c r="A24" s="58"/>
-      <c r="B24" s="63" t="s">
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+    </row>
+    <row r="24" spans="1:15" s="53" customFormat="1" ht="11.3" customHeight="1">
+      <c r="A24" s="57"/>
+      <c r="B24" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="57">
+      <c r="C24" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="56">
         <v>100</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="70" t="s">
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-    </row>
-    <row r="25" s="54" customFormat="1" spans="1:15">
-      <c r="A25" s="58"/>
-      <c r="B25" s="62" t="s">
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+    </row>
+    <row r="25" spans="1:15" s="53" customFormat="1">
+      <c r="A25" s="57"/>
+      <c r="B25" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="57">
+      <c r="C25" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="56">
         <v>100</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="70" t="s">
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-    </row>
-    <row r="26" s="54" customFormat="1" spans="1:15">
-      <c r="A26" s="58"/>
-      <c r="B26" s="62" t="s">
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+    </row>
+    <row r="26" spans="1:15" s="53" customFormat="1">
+      <c r="A26" s="57"/>
+      <c r="B26" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="57">
+      <c r="C26" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="56">
         <v>100</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="70" t="s">
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-    </row>
-    <row r="27" s="54" customFormat="1" spans="1:15">
-      <c r="A27" s="58"/>
-      <c r="B27" s="62" t="s">
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+    </row>
+    <row r="27" spans="1:15" s="53" customFormat="1">
+      <c r="A27" s="57"/>
+      <c r="B27" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="57">
+      <c r="C27" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="56">
         <v>100</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="70" t="s">
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-    </row>
-    <row r="28" s="54" customFormat="1" ht="28.8" spans="1:15">
-      <c r="A28" s="58"/>
-      <c r="B28" s="62" t="s">
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+    </row>
+    <row r="28" spans="1:15" s="53" customFormat="1" ht="26.2">
+      <c r="A28" s="57"/>
+      <c r="B28" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58">
+      <c r="C28" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57">
         <v>0</v>
       </c>
-      <c r="J28" s="70" t="s">
+      <c r="J28" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-    </row>
-    <row r="29" s="54" customFormat="1" spans="1:15">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59" t="s">
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+    </row>
+    <row r="29" spans="1:15" s="53" customFormat="1">
+      <c r="A29" s="57"/>
+      <c r="B29" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58">
+      <c r="C29" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57">
         <v>0</v>
       </c>
-      <c r="J29" s="70" t="s">
+      <c r="J29" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-    </row>
-    <row r="30" ht="28.8" spans="1:15">
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+    </row>
+    <row r="30" spans="1:15" ht="26.2">
       <c r="A30" s="7"/>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="C30" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
+      <c r="C30" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
         <v>1</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="J30" s="70" t="s">
         <v>199</v>
       </c>
       <c r="K30" s="7"/>
@@ -12965,25 +13183,25 @@
   <mergeCells count="1">
     <mergeCell ref="K14:K17"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="16.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625"/>
     <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13081,7 +13299,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:10">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>320</v>
@@ -13099,7 +13317,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:10">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="8"/>
       <c r="B6" s="21" t="s">
         <v>271</v>
@@ -13117,7 +13335,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:10">
       <c r="B7" s="9" t="s">
         <v>318</v>
       </c>
@@ -13137,30 +13355,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="20.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="11.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
     <col min="10" max="10" width="39" customWidth="1"/>
-    <col min="11" max="11" width="16.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:11">
+    <row r="1" spans="1:11" s="8" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>126</v>
       </c>
@@ -13195,7 +13413,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="2:10">
+    <row r="2" spans="1:11" s="8" customFormat="1">
       <c r="B2" s="8" t="s">
         <v>135</v>
       </c>
@@ -13212,7 +13430,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" spans="2:10">
+    <row r="3" spans="1:11" s="8" customFormat="1">
       <c r="B3" s="19" t="s">
         <v>202</v>
       </c>
@@ -13226,7 +13444,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="1:11">
       <c r="B4" s="2" t="s">
         <v>534</v>
       </c>
@@ -13246,7 +13464,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="1:11">
       <c r="B5" s="2" t="s">
         <v>537</v>
       </c>
@@ -13266,7 +13484,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="1:11">
       <c r="B6" s="2" t="s">
         <v>540</v>
       </c>
@@ -13286,7 +13504,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>447</v>
       </c>
@@ -13297,7 +13515,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
         <v>225</v>
       </c>
@@ -13311,7 +13529,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="1:11">
       <c r="B9" s="2" t="s">
         <v>543</v>
       </c>
@@ -13325,7 +13543,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="1:11">
       <c r="B10" s="2" t="s">
         <v>544</v>
       </c>
@@ -13342,9 +13560,9 @@
         <v>545</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="1:11">
       <c r="B11" s="2" t="s">
-        <v>546</v>
+        <v>595</v>
       </c>
       <c r="C11" t="s">
         <v>142</v>
@@ -13362,9 +13580,9 @@
         <v>548</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="1:11">
       <c r="B12" s="2" t="s">
-        <v>549</v>
+        <v>596</v>
       </c>
       <c r="C12" t="s">
         <v>142</v>
@@ -13382,7 +13600,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="1:11">
       <c r="B13" s="2" t="s">
         <v>551</v>
       </c>
@@ -13399,7 +13617,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="1:11">
       <c r="B14" s="2" t="s">
         <v>553</v>
       </c>
@@ -13419,7 +13637,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="1:11">
       <c r="B15" s="2" t="s">
         <v>194</v>
       </c>
@@ -13436,9 +13654,9 @@
         <v>555</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="1:11">
       <c r="B16" s="2" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="C16" t="s">
         <v>142</v>
@@ -13467,7 +13685,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="2:10">
+    <row r="18" spans="2:10" ht="15.75">
       <c r="B18" s="2" t="s">
         <v>204</v>
       </c>
@@ -13515,6 +13733,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -13522,22 +13741,19 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:11">
+    <row r="1" spans="1:11" s="8" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>126</v>
       </c>
@@ -13572,7 +13788,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="2:10">
+    <row r="2" spans="1:11" s="8" customFormat="1">
       <c r="B2" s="8" t="s">
         <v>135</v>
       </c>
@@ -13589,7 +13805,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" spans="2:10">
+    <row r="3" spans="1:11" s="8" customFormat="1">
       <c r="B3" s="19" t="s">
         <v>202</v>
       </c>
@@ -13603,7 +13819,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="1:11">
       <c r="B4" s="2" t="s">
         <v>534</v>
       </c>
@@ -13623,7 +13839,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="1:11">
       <c r="B5" s="2" t="s">
         <v>537</v>
       </c>
@@ -13643,7 +13859,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="1:11">
       <c r="B6" s="2" t="s">
         <v>540</v>
       </c>
@@ -13663,7 +13879,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>447</v>
       </c>
@@ -13674,7 +13890,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
         <v>225</v>
       </c>
@@ -13688,7 +13904,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="1:11">
       <c r="B9" s="2" t="s">
         <v>543</v>
       </c>
@@ -13702,7 +13918,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="1:11">
       <c r="B10" s="2" t="s">
         <v>544</v>
       </c>
@@ -13719,7 +13935,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="1:11">
       <c r="B11" s="2" t="s">
         <v>546</v>
       </c>
@@ -13739,7 +13955,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="1:11">
       <c r="B12" s="2" t="s">
         <v>549</v>
       </c>
@@ -13759,7 +13975,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="1:11">
       <c r="B13" s="2" t="s">
         <v>551</v>
       </c>
@@ -13776,7 +13992,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="1:11">
       <c r="B14" s="2" t="s">
         <v>553</v>
       </c>
@@ -13796,7 +14012,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="1:11">
       <c r="B15" s="2" t="s">
         <v>194</v>
       </c>
@@ -13813,7 +14029,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="1:11">
       <c r="B16" s="2" t="s">
         <v>558</v>
       </c>
@@ -13844,7 +14060,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="2:10">
+    <row r="18" spans="2:10" ht="15.75">
       <c r="B18" s="2" t="s">
         <v>204</v>
       </c>
@@ -13892,6 +14108,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -13899,21 +14116,20 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="17.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:10">
+    <row r="1" spans="1:10" s="8" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>126</v>
       </c>
@@ -13945,7 +14161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="2:10">
+    <row r="2" spans="1:10" s="8" customFormat="1">
       <c r="B2" s="8" t="s">
         <v>135</v>
       </c>
@@ -13962,7 +14178,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" spans="2:10">
+    <row r="3" spans="1:10" s="8" customFormat="1">
       <c r="B3" s="8" t="s">
         <v>202</v>
       </c>
@@ -13976,7 +14192,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>534</v>
       </c>
@@ -13990,7 +14206,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>537</v>
       </c>
@@ -14004,7 +14220,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>565</v>
       </c>
@@ -14018,7 +14234,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>566</v>
       </c>
@@ -14032,7 +14248,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>194</v>
       </c>
@@ -14046,7 +14262,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="1:10">
       <c r="B9" t="s">
         <v>569</v>
       </c>
@@ -14060,7 +14276,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
         <v>571</v>
       </c>
@@ -14074,7 +14290,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="1:10">
       <c r="B11" t="s">
         <v>573</v>
       </c>
@@ -14088,7 +14304,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
         <v>223</v>
       </c>
@@ -14102,7 +14318,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="1:10" ht="14.4">
       <c r="B13" s="16" t="s">
         <v>576</v>
       </c>
@@ -14116,7 +14332,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="1:10">
       <c r="B14" t="s">
         <v>578</v>
       </c>
@@ -14130,7 +14346,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="1:10">
       <c r="B15" t="s">
         <v>580</v>
       </c>
@@ -14144,7 +14360,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
         <v>447</v>
       </c>
@@ -14248,6 +14464,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -14255,22 +14472,21 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="13.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="28.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="13.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="25.4444444444444" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" style="5" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14306,7 +14522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -14323,7 +14539,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="1:10">
       <c r="B3" s="2" t="s">
         <v>202</v>
       </c>
@@ -14337,7 +14553,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4" s="2" t="s">
         <v>139</v>
       </c>
@@ -14348,7 +14564,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="2:10">
+    <row r="5" spans="1:10" ht="26.2">
       <c r="B5" s="10" t="s">
         <v>586</v>
       </c>
@@ -14359,7 +14575,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" s="2" t="s">
         <v>588</v>
       </c>
@@ -14373,7 +14589,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>204</v>
       </c>
@@ -14388,24 +14604,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="28.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -14440,7 +14656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:10">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="B2" s="2" t="s">
         <v>135</v>
       </c>
@@ -14457,7 +14673,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="B3" t="s">
         <v>396</v>
       </c>
@@ -14471,7 +14687,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="B4" t="s">
         <v>398</v>
       </c>
@@ -14485,7 +14701,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="1:10">
       <c r="B5" s="2" t="s">
         <v>590</v>
       </c>
@@ -14496,7 +14712,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" s="4" t="s">
         <v>592</v>
       </c>
@@ -14508,30 +14724,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.1"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="11.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="29.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="9.44444444444444" customWidth="1"/>
-    <col min="10" max="10" width="27.7777777777778" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -14566,24 +14780,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="50" t="s">
         <v>137</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>202</v>
       </c>
@@ -14597,7 +14811,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>204</v>
       </c>
@@ -14611,7 +14825,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" ht="43.2" spans="2:10">
+    <row r="5" spans="1:10" ht="39.299999999999997">
       <c r="B5" t="s">
         <v>91</v>
       </c>
@@ -14625,7 +14839,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="2:10">
+    <row r="6" spans="1:10" ht="26.2">
       <c r="B6" t="s">
         <v>207</v>
       </c>
@@ -14645,7 +14859,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="2:10">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="B7" s="8" t="s">
         <v>209</v>
       </c>
@@ -14665,7 +14879,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:10">
       <c r="B8" s="21" t="s">
         <v>211</v>
       </c>
@@ -14679,7 +14893,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="1:10">
       <c r="B9" s="21" t="s">
         <v>213</v>
       </c>
@@ -14693,7 +14907,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="2:10">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="B10" s="21" t="s">
         <v>215</v>
       </c>
@@ -14710,7 +14924,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="1:10">
       <c r="B11" s="21" t="s">
         <v>217</v>
       </c>
@@ -14727,7 +14941,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
         <v>221</v>
       </c>
@@ -14744,7 +14958,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="1:10">
       <c r="B13" t="s">
         <v>223</v>
       </c>
@@ -14761,7 +14975,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="1:10">
       <c r="B14" t="s">
         <v>225</v>
       </c>
@@ -14778,7 +14992,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="1:10">
       <c r="B15" t="s">
         <v>227</v>
       </c>
@@ -14795,7 +15009,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
         <v>229</v>
       </c>
@@ -14838,7 +15052,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" ht="28.8" spans="2:10">
+    <row r="19" spans="2:10" ht="26.2">
       <c r="B19" t="s">
         <v>235</v>
       </c>
@@ -14852,11 +15066,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" ht="28.8" spans="2:10">
-      <c r="B20" s="47" t="s">
+    <row r="20" spans="2:10" ht="28.15">
+      <c r="B20" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="46" t="s">
         <v>136</v>
       </c>
       <c r="I20">
@@ -14866,7 +15080,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="2:10">
+    <row r="21" spans="2:10" ht="15.75">
       <c r="B21" t="s">
         <v>149</v>
       </c>
@@ -14886,7 +15100,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="2:10">
+    <row r="22" spans="2:10" ht="15.75">
       <c r="B22" s="21" t="s">
         <v>239</v>
       </c>
@@ -14914,7 +15128,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="2:10">
+    <row r="24" spans="2:10" ht="15.75">
       <c r="B24" s="21" t="s">
         <v>243</v>
       </c>
@@ -14934,7 +15148,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="2:10">
+    <row r="25" spans="2:10" ht="15.75">
       <c r="B25" s="21" t="s">
         <v>245</v>
       </c>
@@ -14965,7 +15179,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="2:10">
+    <row r="27" spans="2:10" ht="15.75">
       <c r="B27" s="21" t="s">
         <v>249</v>
       </c>
@@ -14996,7 +15210,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="2:10">
+    <row r="29" spans="2:10" ht="15.75">
       <c r="B29" s="21" t="s">
         <v>253</v>
       </c>
@@ -15027,7 +15241,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="2:10">
+    <row r="31" spans="2:10" ht="15.75">
       <c r="B31" s="21" t="s">
         <v>257</v>
       </c>
@@ -15055,7 +15269,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="2:10">
+    <row r="33" spans="2:10" ht="15.75">
       <c r="B33" s="21" t="s">
         <v>261</v>
       </c>
@@ -15075,7 +15289,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="2:10">
+    <row r="34" spans="2:10" ht="15.75">
       <c r="B34" s="21" t="s">
         <v>263</v>
       </c>
@@ -15103,7 +15317,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="2:10">
+    <row r="36" spans="2:10" ht="15.75">
       <c r="B36" s="21" t="s">
         <v>267</v>
       </c>
@@ -15128,7 +15342,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="2:10">
+    <row r="38" spans="2:10" ht="15.75">
       <c r="B38" s="21" t="s">
         <v>271</v>
       </c>
@@ -15174,33 +15388,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.1"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
     <col min="2" max="2" width="16" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.6666666666667" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.8888888888889" style="8" customWidth="1"/>
-    <col min="7" max="8" width="8.88888888888889" style="8"/>
-    <col min="9" max="9" width="14.1111111111111" style="8" customWidth="1"/>
-    <col min="10" max="10" width="16.6666666666667" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="8.88888888888889" style="8"/>
+    <col min="3" max="3" width="11.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="8"/>
+    <col min="9" max="9" width="14.109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -15235,7 +15449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="1:10">
       <c r="B2" s="8" t="s">
         <v>135</v>
       </c>
@@ -15252,7 +15466,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="1:10">
       <c r="B3" s="8" t="s">
         <v>202</v>
       </c>
@@ -15266,7 +15480,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4" s="8" t="s">
         <v>204</v>
       </c>
@@ -15280,7 +15494,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="2:10">
+    <row r="5" spans="1:10" ht="52.4">
       <c r="B5" s="8" t="s">
         <v>91</v>
       </c>
@@ -15294,7 +15508,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" s="8" t="s">
         <v>207</v>
       </c>
@@ -15311,7 +15525,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" ht="12.8" customHeight="1" spans="2:10">
+    <row r="7" spans="1:10" ht="12.8" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>209</v>
       </c>
@@ -15331,7 +15545,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:10">
       <c r="B8" s="8" t="s">
         <v>279</v>
       </c>
@@ -15345,7 +15559,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="1:10">
       <c r="B9" s="8" t="s">
         <v>281</v>
       </c>
@@ -15359,7 +15573,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="1:10">
       <c r="B10" s="8" t="s">
         <v>283</v>
       </c>
@@ -15373,7 +15587,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="1:10">
       <c r="B11" s="8" t="s">
         <v>285</v>
       </c>
@@ -15387,7 +15601,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="1:10">
       <c r="B12" s="8" t="s">
         <v>287</v>
       </c>
@@ -15404,7 +15618,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="1:10">
       <c r="B13" s="8" t="s">
         <v>289</v>
       </c>
@@ -15421,7 +15635,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="1:10">
       <c r="B14" s="8" t="s">
         <v>291</v>
       </c>
@@ -15438,7 +15652,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="1:10">
       <c r="B15" s="8" t="s">
         <v>293</v>
       </c>
@@ -15455,7 +15669,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="1:10">
       <c r="B16" s="8" t="s">
         <v>295</v>
       </c>
@@ -15472,7 +15686,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:11">
       <c r="B17" s="8" t="s">
         <v>297</v>
       </c>
@@ -15489,7 +15703,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:11">
       <c r="B18" s="8" t="s">
         <v>299</v>
       </c>
@@ -15506,7 +15720,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:11">
       <c r="B19" s="8" t="s">
         <v>301</v>
       </c>
@@ -15523,7 +15737,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:11">
       <c r="B20" s="8" t="s">
         <v>303</v>
       </c>
@@ -15540,7 +15754,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:11">
       <c r="B21" s="8" t="s">
         <v>305</v>
       </c>
@@ -15557,7 +15771,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" ht="28.8" spans="2:10">
+    <row r="22" spans="2:11" ht="26.2">
       <c r="B22" s="8" t="s">
         <v>229</v>
       </c>
@@ -15571,7 +15785,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" ht="28.8" spans="2:10">
+    <row r="23" spans="2:11" ht="26.2">
       <c r="B23" s="9" t="s">
         <v>155</v>
       </c>
@@ -15585,7 +15799,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="2:10">
+    <row r="24" spans="2:11" ht="15.75">
       <c r="B24" s="21" t="s">
         <v>215</v>
       </c>
@@ -15606,7 +15820,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:11">
       <c r="B25" s="21" t="s">
         <v>241</v>
       </c>
@@ -15623,7 +15837,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="2:10">
+    <row r="26" spans="2:11" ht="15.75">
       <c r="B26" s="21" t="s">
         <v>243</v>
       </c>
@@ -15646,7 +15860,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:11">
       <c r="B27" s="21" t="s">
         <v>247</v>
       </c>
@@ -15663,7 +15877,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="2:10">
+    <row r="28" spans="2:11" ht="15.75">
       <c r="B28" s="21" t="s">
         <v>249</v>
       </c>
@@ -15682,7 +15896,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="2:11">
+    <row r="29" spans="2:11" customFormat="1">
       <c r="B29" s="21" t="s">
         <v>251</v>
       </c>
@@ -15694,7 +15908,7 @@
       </c>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" customFormat="1" ht="15.6" spans="2:11">
+    <row r="30" spans="2:11" customFormat="1" ht="15.75">
       <c r="B30" s="21" t="s">
         <v>253</v>
       </c>
@@ -15709,7 +15923,7 @@
       </c>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" customFormat="1" spans="2:11">
+    <row r="31" spans="2:11" customFormat="1">
       <c r="B31" s="21" t="s">
         <v>255</v>
       </c>
@@ -15721,7 +15935,7 @@
       </c>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" customFormat="1" ht="15.6" spans="2:11">
+    <row r="32" spans="2:11" customFormat="1" ht="15.75">
       <c r="B32" s="21" t="s">
         <v>257</v>
       </c>
@@ -15736,51 +15950,51 @@
       </c>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" customFormat="1" spans="2:10">
+    <row r="33" spans="2:10" customFormat="1">
       <c r="B33" s="21"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="35" ht="15.6" spans="3:10">
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="50"/>
-    </row>
-    <row r="37" spans="9:9">
+    <row r="35" spans="2:10" ht="15.75">
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="49"/>
+    </row>
+    <row r="37" spans="2:10">
       <c r="I37"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.1"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
     <col min="2" max="2" width="16" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.6666666666667" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.8888888888889" style="8" customWidth="1"/>
-    <col min="7" max="8" width="8.88888888888889" style="8"/>
-    <col min="9" max="9" width="14.1111111111111" style="8" customWidth="1"/>
-    <col min="10" max="10" width="16.6666666666667" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="8.88888888888889" style="8"/>
+    <col min="3" max="3" width="11.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="8"/>
+    <col min="9" max="9" width="14.109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -15815,7 +16029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="1:10">
       <c r="B2" s="8" t="s">
         <v>308</v>
       </c>
@@ -15832,7 +16046,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="1:10">
       <c r="B3" s="8" t="s">
         <v>202</v>
       </c>
@@ -15846,7 +16060,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4" s="8" t="s">
         <v>204</v>
       </c>
@@ -15860,7 +16074,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="2:10">
+    <row r="5" spans="1:10" ht="52.4">
       <c r="B5" s="8" t="s">
         <v>91</v>
       </c>
@@ -15874,7 +16088,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" ht="43.2" spans="2:10">
+    <row r="6" spans="1:10" ht="39.299999999999997">
       <c r="B6" s="8" t="s">
         <v>207</v>
       </c>
@@ -15891,7 +16105,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="2:10">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="B7" s="8" t="s">
         <v>209</v>
       </c>
@@ -15911,7 +16125,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="2:10">
+    <row r="8" spans="1:10" customFormat="1">
       <c r="B8" t="s">
         <v>211</v>
       </c>
@@ -15925,7 +16139,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="2:10">
+    <row r="9" spans="1:10" customFormat="1">
       <c r="B9" s="21" t="s">
         <v>213</v>
       </c>
@@ -15939,7 +16153,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.6" spans="2:10">
+    <row r="10" spans="1:10" customFormat="1" ht="15.75">
       <c r="B10" s="21" t="s">
         <v>215</v>
       </c>
@@ -15956,7 +16170,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="2:10">
+    <row r="11" spans="1:10" customFormat="1">
       <c r="B11" s="21" t="s">
         <v>217</v>
       </c>
@@ -15973,7 +16187,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="2:10">
+    <row r="12" spans="1:10" customFormat="1">
       <c r="B12" s="9" t="s">
         <v>221</v>
       </c>
@@ -15990,7 +16204,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="2:10">
+    <row r="13" spans="1:10" customFormat="1">
       <c r="B13" s="9" t="s">
         <v>223</v>
       </c>
@@ -16007,7 +16221,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="1:10">
       <c r="B14" s="9" t="s">
         <v>225</v>
       </c>
@@ -16024,7 +16238,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="1:10">
       <c r="B15" s="9" t="s">
         <v>227</v>
       </c>
@@ -16041,7 +16255,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="2:10">
+    <row r="16" spans="1:10" ht="26.2">
       <c r="B16" s="9" t="s">
         <v>229</v>
       </c>
@@ -16052,7 +16266,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="2:10">
+    <row r="17" spans="1:10" ht="15.75">
       <c r="B17" s="9" t="s">
         <v>312</v>
       </c>
@@ -16073,7 +16287,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="1:10">
       <c r="B18" s="9" t="s">
         <v>231</v>
       </c>
@@ -16102,7 +16316,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" ht="43.2" spans="2:10">
+    <row r="20" spans="1:10" ht="39.299999999999997">
       <c r="B20" s="21" t="s">
         <v>235</v>
       </c>
@@ -16121,11 +16335,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="43.2" spans="2:10">
-      <c r="B21" s="46" t="s">
+    <row r="21" spans="1:10" customFormat="1" ht="41.25">
+      <c r="B21" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="46" t="s">
         <v>136</v>
       </c>
       <c r="I21">
@@ -16135,7 +16349,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="2:10">
+    <row r="22" spans="1:10" ht="15.75">
       <c r="B22" s="21" t="s">
         <v>149</v>
       </c>
@@ -16156,7 +16370,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="2:10">
+    <row r="23" spans="1:10" ht="15.75">
       <c r="B23" s="21" t="s">
         <v>239</v>
       </c>
@@ -16177,7 +16391,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="1:10">
       <c r="B24" s="21" t="s">
         <v>241</v>
       </c>
@@ -16196,7 +16410,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="2:10">
+    <row r="25" spans="1:10" ht="15.75">
       <c r="B25" s="21" t="s">
         <v>243</v>
       </c>
@@ -16219,7 +16433,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="2:10">
+    <row r="26" spans="1:10" ht="15.75">
       <c r="B26" s="21" t="s">
         <v>245</v>
       </c>
@@ -16240,7 +16454,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="1:10">
       <c r="B27" s="21" t="s">
         <v>247</v>
       </c>
@@ -16257,7 +16471,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="2:10">
+    <row r="28" spans="1:10" ht="15.75">
       <c r="B28" s="21" t="s">
         <v>249</v>
       </c>
@@ -16276,7 +16490,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="1:10">
       <c r="B29" s="21" t="s">
         <v>251</v>
       </c>
@@ -16293,7 +16507,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="2:10">
+    <row r="30" spans="1:10" ht="15.75">
       <c r="B30" s="21" t="s">
         <v>253</v>
       </c>
@@ -16312,7 +16526,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="1:10">
       <c r="B31" s="21" t="s">
         <v>255</v>
       </c>
@@ -16329,7 +16543,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="2:10">
+    <row r="32" spans="1:10" ht="15.75">
       <c r="B32" s="21" t="s">
         <v>257</v>
       </c>
@@ -16367,7 +16581,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" ht="28.8" spans="2:10">
+    <row r="34" spans="2:10" ht="26.2">
       <c r="B34" s="24" t="s">
         <v>273</v>
       </c>
@@ -16389,33 +16603,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.1"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
     <col min="2" max="2" width="16" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.6666666666667" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.8888888888889" style="8" customWidth="1"/>
-    <col min="7" max="8" width="8.88888888888889" style="8"/>
-    <col min="9" max="9" width="14.1111111111111" style="8" customWidth="1"/>
-    <col min="10" max="10" width="16.6666666666667" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="8.88888888888889" style="8"/>
+    <col min="3" max="3" width="11.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="8"/>
+    <col min="9" max="9" width="14.109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -16450,7 +16662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="1:10">
       <c r="B2" s="8" t="s">
         <v>135</v>
       </c>
@@ -16467,7 +16679,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="1:10">
       <c r="B3" s="8" t="s">
         <v>202</v>
       </c>
@@ -16481,7 +16693,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4" s="8" t="s">
         <v>204</v>
       </c>
@@ -16495,7 +16707,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="2:10">
+    <row r="5" spans="1:10" ht="52.4">
       <c r="B5" s="8" t="s">
         <v>91</v>
       </c>
@@ -16512,7 +16724,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" s="8" t="s">
         <v>207</v>
       </c>
@@ -16532,8 +16744,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" ht="12.8" customHeight="1" spans="2:10">
-      <c r="B7" s="45" t="s">
+    <row r="7" spans="1:10" ht="12.8" customHeight="1">
+      <c r="B7" s="44" t="s">
         <v>209</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -16552,7 +16764,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:10">
       <c r="B8" s="8" t="s">
         <v>279</v>
       </c>
@@ -16566,7 +16778,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="1:10">
       <c r="B9" s="8" t="s">
         <v>281</v>
       </c>
@@ -16580,7 +16792,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="1:10">
       <c r="B10" s="8" t="s">
         <v>283</v>
       </c>
@@ -16594,7 +16806,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="1:10">
       <c r="B11" s="8" t="s">
         <v>285</v>
       </c>
@@ -16608,7 +16820,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="1:10">
       <c r="B12" s="8" t="s">
         <v>287</v>
       </c>
@@ -16625,7 +16837,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="1:10">
       <c r="B13" s="8" t="s">
         <v>289</v>
       </c>
@@ -16642,7 +16854,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="1:10">
       <c r="B14" s="8" t="s">
         <v>291</v>
       </c>
@@ -16659,7 +16871,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="1:10">
       <c r="B15" s="8" t="s">
         <v>293</v>
       </c>
@@ -16676,7 +16888,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="1:10">
       <c r="B16" s="8" t="s">
         <v>295</v>
       </c>
@@ -16778,7 +16990,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" ht="28.8" spans="2:10">
+    <row r="22" spans="2:10" ht="26.2">
       <c r="B22" s="8" t="s">
         <v>229</v>
       </c>
@@ -16792,7 +17004,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" ht="28.8" spans="2:10">
+    <row r="23" spans="2:10" ht="26.2">
       <c r="B23" s="9" t="s">
         <v>155</v>
       </c>
@@ -16806,7 +17018,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="2:10">
+    <row r="24" spans="2:10" ht="15.75">
       <c r="B24" s="21" t="s">
         <v>215</v>
       </c>
@@ -16846,7 +17058,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="2:10">
+    <row r="26" spans="2:10" ht="15.75">
       <c r="B26" s="21" t="s">
         <v>243</v>
       </c>
@@ -16888,7 +17100,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="2:10">
+    <row r="28" spans="2:10" ht="15.75">
       <c r="B28" s="21" t="s">
         <v>249</v>
       </c>
@@ -16928,7 +17140,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="2:10">
+    <row r="30" spans="2:10" ht="15.75">
       <c r="B30" s="21" t="s">
         <v>253</v>
       </c>
@@ -16968,7 +17180,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="2:10">
+    <row r="32" spans="2:10" ht="15.75">
       <c r="B32" s="21" t="s">
         <v>257</v>
       </c>
@@ -16996,29 +17208,27 @@
       <c r="B34" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="13.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="28.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="13.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="19.3333333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17053,7 +17263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>135</v>
       </c>
@@ -17070,7 +17280,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>202</v>
       </c>
@@ -17084,7 +17294,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>314</v>
       </c>
@@ -17098,7 +17308,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>204</v>
       </c>
@@ -17113,7 +17323,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
